--- a/data/trans_dic/P16B18-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Clase-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos medicamentos anticonceptivos fueron recetados (tasa de respuesta: 98,6%)</t>
+          <t>Mujeres menores de 55 años cuyos anticonceptivos consumidos fueron recetados por el médico (tasa de respuesta: 98,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -991,7 +991,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos medicamentos anticonceptivos fueron recetados (tasa de respuesta: 98,6%)</t>
+          <t>Mujeres menores de 55 años cuyos anticonceptivos consumidos fueron recetados por el médico (tasa de respuesta: 98,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16B18-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Clase-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7461442112725557</v>
+        <v>0.7431866652415898</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7982839059316879</v>
+        <v>0.7958927964267531</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6138829218267378</v>
+        <v>0.6715672168808599</v>
       </c>
     </row>
     <row r="6">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9720013166407813</v>
+        <v>0.9713895175800088</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>1</v>
@@ -656,11 +656,11 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8313296457204277</v>
+        <v>0.809143755743754</v>
       </c>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="n">
-        <v>0.8387221640431385</v>
+        <v>0.850682528292563</v>
       </c>
     </row>
     <row r="9">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9772477019220808</v>
+        <v>0.9769908398672693</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.406189771966029</v>
+        <v>0.4901500479072159</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6962367872897132</v>
+        <v>0.6645882436282708</v>
       </c>
       <c r="E11" s="5" t="inlineStr"/>
     </row>
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8804900459410397</v>
+        <v>0.8660772851081363</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9305071518309576</v>
+        <v>0.9039316146092204</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8377127514748784</v>
+        <v>0.836687827946224</v>
       </c>
     </row>
     <row r="15">
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9805462161489404</v>
+        <v>0.9805297342215105</v>
       </c>
     </row>
     <row r="16">
@@ -813,11 +813,11 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7639425112218572</v>
+        <v>0.7658947038394538</v>
       </c>
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="n">
-        <v>0.8171172713105217</v>
+        <v>0.8075398071801033</v>
       </c>
     </row>
     <row r="18">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9720828760990385</v>
+        <v>0.9847908316323044</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7566617762454335</v>
+        <v>0.7617614887177685</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9225134843258219</v>
+        <v>0.8934425542110821</v>
       </c>
       <c r="E20" s="5" t="inlineStr"/>
     </row>
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9720566953115723</v>
+        <v>0.9730113278108288</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>1</v>
@@ -915,13 +915,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8717059762207751</v>
+        <v>0.870982431895225</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9559464742668228</v>
+        <v>0.9555584397089931</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9111509054630463</v>
+        <v>0.9140933501604847</v>
       </c>
     </row>
     <row r="24">
@@ -932,13 +932,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9478385631103613</v>
+        <v>0.9471301261646864</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9954583435415187</v>
+        <v>0.9956036477112806</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9806669821383917</v>
+        <v>0.9814854205440432</v>
       </c>
     </row>
     <row r="25">
@@ -1075,13 +1075,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>26403</v>
+        <v>26298</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>25754</v>
+        <v>25677</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10570</v>
+        <v>11563</v>
       </c>
     </row>
     <row r="7">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>34395</v>
+        <v>34374</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>32262</v>
@@ -1147,11 +1147,11 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>36597</v>
+        <v>35620</v>
       </c>
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="n">
-        <v>23216</v>
+        <v>23547</v>
       </c>
     </row>
     <row r="11">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>43020</v>
+        <v>43009</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3913</v>
+        <v>4722</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9606</v>
+        <v>9169</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
     </row>
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>46092</v>
+        <v>45337</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>60483</v>
+        <v>58756</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>34988</v>
+        <v>34945</v>
       </c>
     </row>
     <row r="19">
@@ -1355,11 +1355,11 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>25851</v>
+        <v>25917</v>
       </c>
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="n">
-        <v>20099</v>
+        <v>19863</v>
       </c>
     </row>
     <row r="23">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>32894</v>
+        <v>33324</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
@@ -1423,10 +1423,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>27200</v>
+        <v>27384</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>48667</v>
+        <v>47134</v>
       </c>
       <c r="E26" s="6" t="inlineStr"/>
     </row>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>34943</v>
+        <v>34978</v>
       </c>
       <c r="D27" s="6" t="n">
         <v>52755</v>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>184085</v>
+        <v>183932</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>215076</v>
+        <v>214989</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>131783</v>
+        <v>132209</v>
       </c>
     </row>
     <row r="31">
@@ -1508,13 +1508,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>200163</v>
+        <v>200013</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>223966</v>
+        <v>223999</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>141838</v>
+        <v>141956</v>
       </c>
     </row>
     <row r="32">
